--- a/data/league_data/france/19/france_defending.xlsx
+++ b/data/league_data/france/19/france_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FDB2EA-031F-104D-9B23-339C55D9EC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D201677E-3B02-6A44-82C3-7E5ED7FD54CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,9 +889,6 @@
     <t>Fouad Chafik</t>
   </si>
   <si>
-    <t>Manu García</t>
-  </si>
-  <si>
     <t>Rony Lopes</t>
   </si>
   <si>
@@ -1282,9 +1279,6 @@
     <t>Jean-Victor Makengo</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Thiago Maia</t>
   </si>
   <si>
@@ -1859,6 +1853,12 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
+  </si>
+  <si>
+    <t>Manu García Alonso</t>
   </si>
 </sst>
 </file>
@@ -2725,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8267,7 +8267,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>71</v>
@@ -20993,7 +20993,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>289</v>
+        <v>612</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>266</v>
@@ -21088,7 +21088,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>68</v>
@@ -21183,7 +21183,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>266</v>
@@ -21278,7 +21278,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>32</v>
@@ -21373,10 +21373,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>56</v>
@@ -21468,7 +21468,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>252</v>
@@ -21563,7 +21563,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>55</v>
@@ -21658,7 +21658,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>32</v>
@@ -21753,7 +21753,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>32</v>
@@ -21848,7 +21848,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>32</v>
@@ -21943,7 +21943,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>32</v>
@@ -22038,7 +22038,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>40</v>
@@ -22133,7 +22133,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>273</v>
@@ -22228,7 +22228,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>32</v>
@@ -22323,7 +22323,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>32</v>
@@ -22418,7 +22418,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>116</v>
@@ -22513,7 +22513,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>32</v>
@@ -22608,7 +22608,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>32</v>
@@ -22703,7 +22703,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>32</v>
@@ -22798,10 +22798,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>29</v>
@@ -22893,7 +22893,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>116</v>
@@ -22988,7 +22988,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>52</v>
@@ -23083,10 +23083,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>84</v>
@@ -23178,7 +23178,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>32</v>
@@ -23273,10 +23273,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>59</v>
@@ -23368,10 +23368,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>104</v>
@@ -23463,7 +23463,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>32</v>
@@ -23558,7 +23558,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>71</v>
@@ -23653,7 +23653,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>209</v>
@@ -23748,7 +23748,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>52</v>
@@ -23843,7 +23843,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>116</v>
@@ -23938,7 +23938,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>32</v>
@@ -24033,7 +24033,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>40</v>
@@ -24128,7 +24128,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>40</v>
@@ -24223,7 +24223,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>32</v>
@@ -24318,7 +24318,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>32</v>
@@ -24413,7 +24413,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>32</v>
@@ -24508,7 +24508,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>71</v>
@@ -24603,10 +24603,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>29</v>
@@ -24698,7 +24698,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>32</v>
@@ -24793,10 +24793,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>84</v>
@@ -24888,7 +24888,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>283</v>
@@ -24981,7 +24981,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>114</v>
@@ -25074,7 +25074,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>116</v>
@@ -25169,10 +25169,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>84</v>
@@ -25264,7 +25264,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>32</v>
@@ -25359,7 +25359,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>32</v>
@@ -25454,7 +25454,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>71</v>
@@ -25549,10 +25549,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>29</v>
@@ -25644,7 +25644,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>40</v>
@@ -25739,7 +25739,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>32</v>
@@ -25834,7 +25834,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>32</v>
@@ -25929,7 +25929,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>55</v>
@@ -26024,7 +26024,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>32</v>
@@ -26119,7 +26119,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>52</v>
@@ -26214,7 +26214,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>71</v>
@@ -26309,7 +26309,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>125</v>
@@ -26404,7 +26404,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>32</v>
@@ -26499,7 +26499,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>71</v>
@@ -26594,7 +26594,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>32</v>
@@ -26689,7 +26689,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>68</v>
@@ -26784,7 +26784,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>98</v>
@@ -26879,7 +26879,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>80</v>
@@ -26974,7 +26974,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>122</v>
@@ -27069,7 +27069,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>87</v>
@@ -27164,7 +27164,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>32</v>
@@ -27259,7 +27259,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>120</v>
@@ -27354,10 +27354,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>59</v>
@@ -27449,7 +27449,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>32</v>
@@ -27544,7 +27544,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>71</v>
@@ -27639,7 +27639,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>55</v>
@@ -27734,10 +27734,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>59</v>
@@ -27829,7 +27829,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>68</v>
@@ -27924,7 +27924,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>32</v>
@@ -28019,7 +28019,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>55</v>
@@ -28114,7 +28114,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>71</v>
@@ -28209,7 +28209,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>32</v>
@@ -28304,10 +28304,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>84</v>
@@ -28399,7 +28399,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>32</v>
@@ -28494,7 +28494,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>32</v>
@@ -28589,7 +28589,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>32</v>
@@ -28684,7 +28684,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>150</v>
@@ -28779,7 +28779,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>32</v>
@@ -28874,7 +28874,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>28</v>
@@ -28969,7 +28969,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>80</v>
@@ -29064,7 +29064,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>32</v>
@@ -29159,7 +29159,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>32</v>
@@ -29254,7 +29254,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>108</v>
@@ -29349,7 +29349,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>52</v>
@@ -29444,7 +29444,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>32</v>
@@ -29539,7 +29539,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>120</v>
@@ -29634,7 +29634,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>83</v>
@@ -29729,7 +29729,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>32</v>
@@ -29824,7 +29824,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>32</v>
@@ -29919,7 +29919,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>68</v>
@@ -30014,10 +30014,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>84</v>
@@ -30109,7 +30109,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>52</v>
@@ -30204,7 +30204,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>32</v>
@@ -30299,7 +30299,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>116</v>
@@ -30394,7 +30394,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>32</v>
@@ -30489,7 +30489,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>32</v>
@@ -30584,10 +30584,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>33</v>
@@ -30679,7 +30679,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>261</v>
@@ -30774,7 +30774,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>32</v>
@@ -30869,7 +30869,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>32</v>
@@ -30964,7 +30964,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>32</v>
@@ -31059,7 +31059,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>55</v>
@@ -31154,7 +31154,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>28</v>
@@ -31249,7 +31249,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>32</v>
@@ -31344,7 +31344,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>71</v>
@@ -31439,7 +31439,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>32</v>
@@ -31534,10 +31534,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>29</v>
@@ -31629,7 +31629,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>32</v>
@@ -31724,7 +31724,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>28</v>
@@ -31819,10 +31819,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>59</v>
@@ -31914,7 +31914,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>32</v>
@@ -32009,7 +32009,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>187</v>
@@ -32104,7 +32104,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>150</v>
@@ -32199,7 +32199,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>120</v>
@@ -32294,7 +32294,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>32</v>
@@ -32389,7 +32389,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>420</v>
+        <v>611</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>71</v>
@@ -32484,7 +32484,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>71</v>
@@ -32579,7 +32579,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>32</v>
@@ -32674,10 +32674,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>59</v>
@@ -32769,7 +32769,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>32</v>
@@ -32864,7 +32864,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>266</v>
@@ -32959,7 +32959,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>147</v>
@@ -33054,7 +33054,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>32</v>
@@ -33149,7 +33149,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>32</v>
@@ -33244,7 +33244,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>28</v>
@@ -33339,7 +33339,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>283</v>
@@ -33434,10 +33434,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>56</v>
@@ -33529,7 +33529,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>32</v>
@@ -33622,7 +33622,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>28</v>
@@ -33717,7 +33717,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>55</v>
@@ -33812,7 +33812,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>32</v>
@@ -33907,7 +33907,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>32</v>
@@ -34002,7 +34002,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>32</v>
@@ -34097,7 +34097,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>32</v>
@@ -34192,7 +34192,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>71</v>
@@ -34287,7 +34287,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>32</v>
@@ -34382,7 +34382,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>32</v>
@@ -34477,7 +34477,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>32</v>
@@ -34572,7 +34572,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>32</v>
@@ -34667,7 +34667,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>32</v>
@@ -34762,7 +34762,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>32</v>
@@ -34857,7 +34857,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>87</v>
@@ -34952,10 +34952,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>56</v>
@@ -35047,7 +35047,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>120</v>
@@ -35142,7 +35142,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>68</v>
@@ -35237,10 +35237,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>84</v>
@@ -35332,10 +35332,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>84</v>
@@ -35427,7 +35427,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>32</v>
@@ -35522,7 +35522,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>71</v>
@@ -35617,7 +35617,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>55</v>
@@ -35712,7 +35712,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>68</v>
@@ -35807,10 +35807,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>84</v>
@@ -35902,7 +35902,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>32</v>
@@ -35997,7 +35997,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>283</v>
@@ -36092,7 +36092,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>40</v>
@@ -36187,7 +36187,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>165</v>
@@ -36282,7 +36282,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>32</v>
@@ -36377,7 +36377,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>40</v>
@@ -36472,10 +36472,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>29</v>
@@ -36567,7 +36567,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>52</v>
@@ -36662,7 +36662,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>71</v>
@@ -36757,7 +36757,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>32</v>
@@ -36852,10 +36852,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>29</v>
@@ -36947,10 +36947,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>33</v>
@@ -37038,7 +37038,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>114</v>
@@ -37133,7 +37133,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>32</v>
@@ -37228,7 +37228,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>32</v>
@@ -37323,7 +37323,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>32</v>
@@ -37418,7 +37418,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>52</v>
@@ -37513,7 +37513,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>32</v>
@@ -37608,7 +37608,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>98</v>
@@ -37703,7 +37703,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>32</v>
@@ -37798,7 +37798,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>173</v>
@@ -37893,7 +37893,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>32</v>
@@ -37988,7 +37988,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>68</v>
@@ -38083,7 +38083,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>32</v>
@@ -38178,7 +38178,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>116</v>
@@ -38273,7 +38273,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>32</v>
@@ -38368,10 +38368,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>84</v>
@@ -38463,7 +38463,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>55</v>
@@ -38558,7 +38558,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>98</v>
@@ -38653,7 +38653,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>283</v>
@@ -38748,10 +38748,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>84</v>
@@ -38843,10 +38843,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>29</v>
@@ -38938,10 +38938,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>56</v>
@@ -39033,7 +39033,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>32</v>
@@ -39128,10 +39128,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>29</v>
@@ -39223,7 +39223,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>28</v>
@@ -39318,7 +39318,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>32</v>
@@ -39413,7 +39413,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>32</v>
@@ -39508,7 +39508,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>71</v>
@@ -39603,7 +39603,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>71</v>
@@ -39698,7 +39698,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>40</v>
@@ -39793,7 +39793,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>40</v>
@@ -39888,7 +39888,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>40</v>
@@ -39979,7 +39979,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>32</v>
@@ -40074,7 +40074,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>32</v>
@@ -40169,7 +40169,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>283</v>
@@ -40264,7 +40264,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>32</v>
@@ -40359,7 +40359,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>32</v>
@@ -40454,10 +40454,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>84</v>
@@ -40549,10 +40549,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>56</v>
@@ -40644,10 +40644,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>59</v>
@@ -40739,7 +40739,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>32</v>
@@ -40834,7 +40834,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>40</v>
@@ -40929,7 +40929,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>173</v>
@@ -41024,7 +41024,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>40</v>
@@ -41119,7 +41119,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>111</v>
@@ -41214,7 +41214,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>120</v>
@@ -41309,7 +41309,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>32</v>
@@ -41404,7 +41404,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>32</v>
@@ -41499,7 +41499,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>32</v>
@@ -41594,10 +41594,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>92</v>
@@ -41689,7 +41689,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>32</v>
@@ -41784,7 +41784,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>116</v>
@@ -41879,7 +41879,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>52</v>
@@ -41974,7 +41974,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>80</v>
@@ -42069,10 +42069,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>104</v>
@@ -42164,7 +42164,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>266</v>
@@ -42259,7 +42259,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>32</v>
@@ -42354,10 +42354,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>29</v>
@@ -42449,7 +42449,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>32</v>
@@ -42540,7 +42540,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>42</v>
@@ -42635,7 +42635,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>120</v>
@@ -42730,7 +42730,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>32</v>
@@ -42825,7 +42825,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>32</v>
@@ -42920,7 +42920,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>116</v>
@@ -43015,7 +43015,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>32</v>
@@ -43110,7 +43110,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>83</v>
@@ -43205,7 +43205,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>98</v>
@@ -43300,10 +43300,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>92</v>
@@ -43395,7 +43395,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>71</v>
@@ -43490,7 +43490,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>40</v>
@@ -43585,7 +43585,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>266</v>
@@ -43680,7 +43680,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>32</v>
@@ -43775,7 +43775,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>32</v>
@@ -43866,7 +43866,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>32</v>
@@ -43961,7 +43961,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>32</v>
@@ -44056,7 +44056,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>273</v>
@@ -44149,7 +44149,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>68</v>
@@ -44244,7 +44244,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>111</v>
@@ -44339,7 +44339,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>116</v>
@@ -44434,7 +44434,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>32</v>
@@ -44529,7 +44529,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>173</v>
@@ -44624,7 +44624,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>273</v>
@@ -44719,7 +44719,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>40</v>
@@ -44812,7 +44812,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>32</v>
@@ -44907,7 +44907,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>40</v>
@@ -45002,7 +45002,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>32</v>
@@ -45097,7 +45097,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>32</v>
@@ -45192,7 +45192,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>32</v>
@@ -45287,7 +45287,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>32</v>
@@ -45382,7 +45382,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>32</v>
@@ -45477,10 +45477,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>56</v>
@@ -45572,7 +45572,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>32</v>
@@ -45667,7 +45667,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>32</v>
@@ -45762,7 +45762,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>32</v>
@@ -45857,7 +45857,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>32</v>
@@ -45948,7 +45948,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>83</v>
@@ -46043,7 +46043,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>32</v>
@@ -46138,7 +46138,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>32</v>
@@ -46233,7 +46233,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>32</v>
@@ -46328,7 +46328,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>40</v>
@@ -46423,7 +46423,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>32</v>
@@ -46518,7 +46518,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>32</v>
@@ -46613,7 +46613,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>83</v>
@@ -46708,7 +46708,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>32</v>
@@ -46803,7 +46803,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>32</v>
@@ -46898,7 +46898,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>32</v>
@@ -46993,7 +46993,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>32</v>
@@ -47088,10 +47088,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>84</v>
@@ -47183,7 +47183,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>40</v>
@@ -47278,7 +47278,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>40</v>
@@ -47373,7 +47373,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>139</v>
@@ -47466,7 +47466,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>32</v>
@@ -47561,10 +47561,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>29</v>
@@ -47656,7 +47656,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>32</v>
@@ -47751,7 +47751,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>32</v>
@@ -47941,10 +47941,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>59</v>
@@ -48036,7 +48036,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>32</v>
@@ -48131,7 +48131,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>32</v>
@@ -48226,7 +48226,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>32</v>
@@ -48321,7 +48321,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>193</v>
@@ -48416,7 +48416,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>32</v>
@@ -48509,7 +48509,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>32</v>
@@ -48600,7 +48600,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>32</v>
@@ -48695,7 +48695,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>55</v>
@@ -48790,7 +48790,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>273</v>
@@ -48885,7 +48885,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>32</v>
@@ -48980,7 +48980,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>98</v>
@@ -49075,7 +49075,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>209</v>
@@ -49261,7 +49261,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>114</v>
@@ -49356,7 +49356,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>32</v>
@@ -49451,7 +49451,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>32</v>
@@ -49546,7 +49546,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>32</v>
@@ -49639,7 +49639,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>32</v>
@@ -49730,7 +49730,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>32</v>
@@ -49823,7 +49823,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>42</v>
@@ -49918,7 +49918,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>32</v>
@@ -50009,7 +50009,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>32</v>
@@ -50102,10 +50102,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>29</v>
